--- a/biology/Médecine/Chirurgie_pédiatrique/Chirurgie_pédiatrique.xlsx
+++ b/biology/Médecine/Chirurgie_pédiatrique/Chirurgie_pédiatrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chirurgie_p%C3%A9diatrique</t>
+          <t>Chirurgie_pédiatrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chirurgie pédiatrique est une branche de la chirurgie qui se limite à une tranche d'âge s'étendant de la période prénatale à l'adolescence. La chirurgie pédiatrique peut également s'intituler chirurgie infantile.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chirurgie_p%C3%A9diatrique</t>
+          <t>Chirurgie_pédiatrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme de nombreuses disciplines médicales, la chirurgie pédiatrique prend son essor à la fin du XIXe siècle. L’hôpital Necker-Enfants malades se trouve en tête des efforts menés dans ce domaine grâce aux travaux de Paul Guersant, Joaquim Giraldes (pt) et Louis-Alexandre de Saint Germain[1],[2].
-En 1881 se déroule la première intervention de chirurgie esthétique pédiatrique qui est une otoplastie[3]. 
-En 1893, le premier titulaire d'une chaire de chirurgie infantile en France est le professeur Timothée Piéchaud, à Bordeaux[4].
-Édouard Kirmisson, premier titulaire de la chaire de clinique chirurgicale des maladies de l’enfant en 1899 publie un manuel de chirurgie pédiatrique en 1906[2]. Ce manuel couvre la radiologie, les malformations congénitales et l'ostéomyélite[2].
-Marie Nageotte-Wilbouchewitch, première chirurgienne en France, se forme en chirurgie pédiatrique auprès de Georges Félizet et Louis-Alexandre de Saint Germain au début du siècle[5]. 
-L’occurrence de deux guerres mondiales freine les efforts pour moderniser la chirurgie pédiatrique[2]. La Société française de chirurgie pédiatrique est créée en 1959 sous le nom de Société française de chirurgie infantile[2].
-La première professeure de chirurgie pédiatrique est Claire Nihoul-Fékété[2] en 1971[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme de nombreuses disciplines médicales, la chirurgie pédiatrique prend son essor à la fin du XIXe siècle. L’hôpital Necker-Enfants malades se trouve en tête des efforts menés dans ce domaine grâce aux travaux de Paul Guersant, Joaquim Giraldes (pt) et Louis-Alexandre de Saint Germain,.
+En 1881 se déroule la première intervention de chirurgie esthétique pédiatrique qui est une otoplastie. 
+En 1893, le premier titulaire d'une chaire de chirurgie infantile en France est le professeur Timothée Piéchaud, à Bordeaux.
+Édouard Kirmisson, premier titulaire de la chaire de clinique chirurgicale des maladies de l’enfant en 1899 publie un manuel de chirurgie pédiatrique en 1906. Ce manuel couvre la radiologie, les malformations congénitales et l'ostéomyélite.
+Marie Nageotte-Wilbouchewitch, première chirurgienne en France, se forme en chirurgie pédiatrique auprès de Georges Félizet et Louis-Alexandre de Saint Germain au début du siècle. 
+L’occurrence de deux guerres mondiales freine les efforts pour moderniser la chirurgie pédiatrique. La Société française de chirurgie pédiatrique est créée en 1959 sous le nom de Société française de chirurgie infantile.
+La première professeure de chirurgie pédiatrique est Claire Nihoul-Fékété en 1971.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chirurgie_p%C3%A9diatrique</t>
+          <t>Chirurgie_pédiatrique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des pathologies chirurgicales pédiatriques sont très spécifiques et différentes de celles de l'adulte.
 Les malformations congénitales sont généralement décelées et traitées pendant l'enfance.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chirurgie_p%C3%A9diatrique</t>
+          <t>Chirurgie_pédiatrique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Actes chirurgicaux courants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">- Chirurgie néonatale (nouveau-nés) : malformations digestives, urinaires et pulmonaires
 - Chirurgie thoracique
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chirurgie_p%C3%A9diatrique</t>
+          <t>Chirurgie_pédiatrique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La charge affective et émotive est très élevée.
 Douze années d'études sont requises pour acquérir les compétences relatives à ce domaine,(DES de chirurgie générale avec un DESC de trois ans)
